--- a/static/list.xlsx
+++ b/static/list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/minhuichoe/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/minhuichoe/Documents/WorkSpace/04. Repository/goods_adobeday_adobe/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0F98A59B-9CF8-F64F-B8D9-55B911E2B5D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8763FFCE-0964-0D41-966A-0DB693A60C2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4380" yWindow="3180" windowWidth="27640" windowHeight="16940"/>
+    <workbookView xWindow="4380" yWindow="3180" windowWidth="27640" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="list" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3585" uniqueCount="1248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3590" uniqueCount="1251">
   <si>
     <t> Seq.</t>
   </si>
@@ -3764,12 +3764,21 @@
   </si>
   <si>
     <t>kh85.shin@samsung.com</t>
+  </si>
+  <si>
+    <t>최민희</t>
+  </si>
+  <si>
+    <t>erinis@naver.com</t>
+  </si>
+  <si>
+    <t>DME</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -4087,7 +4096,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -4217,6 +4226,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -4262,7 +4282,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4274,6 +4294,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="22" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4630,11 +4653,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J587"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J588"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A563" workbookViewId="0">
+      <selection activeCell="D588" sqref="D588"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22381,6 +22404,32 @@
         <v>45244.732592592591</v>
       </c>
     </row>
+    <row r="588" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A588" s="5">
+        <v>1000</v>
+      </c>
+      <c r="B588" s="5" t="s">
+        <v>1248</v>
+      </c>
+      <c r="C588" s="5">
+        <v>1087495059</v>
+      </c>
+      <c r="D588" s="5" t="s">
+        <v>1249</v>
+      </c>
+      <c r="E588" s="5" t="s">
+        <v>1250</v>
+      </c>
+      <c r="F588" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I588" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="J588" s="4">
+        <v>45244.732592592591</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
